--- a/lista_preços2.xlsx
+++ b/lista_preços2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,25 +440,15 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Produto</t>
+          <t>PRODUTO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Preço</t>
+          <t>PREÇO</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Data atual</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PREÇO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>DATA ATUAL</t>
         </is>
@@ -467,36 +457,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dolar</t>
+          <t>Dolar/BRL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.881704</v>
+        <v>4.81633799834</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44702.39240609953</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.881704</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>44702.39504600877</v>
+        <v>44704.81221411736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Café/Kg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.6296296296296</v>
+        <v>2.161274399999995</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>4.6296296296296</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -505,13 +485,119 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.849400266548</v>
+        <v>113.16292799859</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>88.849400266548</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Trigo</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>422.3325130832395</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Algodão</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.430484650349657</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Açucar</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2023615560060839</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>17.34174548872191</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Etanol</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.161999740740733</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Feijao</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17.07222611736823</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gas Natural</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7.95004838783437</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Madeira</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6758947314687541</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>142.8862158947376</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Milho</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.857316298887055</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/lista_preços2.xlsx
+++ b/lista_preços2.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,16 +439,6 @@
           <t>PRODUTO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PREÇO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DATA ATUAL</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -460,12 +446,6 @@
           <t>Dolar/BRL</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>4.81633799834</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44704.81221411736</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -473,10 +453,6 @@
           <t>Café/Kg</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2.161274399999995</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -484,10 +460,6 @@
           <t>Petroleo</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>113.16292799859</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -495,10 +467,6 @@
           <t>Trigo</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>422.3325130832395</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -506,10 +474,6 @@
           <t>Algodão</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1.430484650349657</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -517,10 +481,6 @@
           <t>Açucar</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.2023615560060839</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,10 +488,6 @@
           <t>Arroz</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>17.34174548872191</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -539,10 +495,6 @@
           <t>Etanol</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2.161999740740733</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -550,10 +502,6 @@
           <t>Feijao</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>17.07222611736823</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -561,10 +509,6 @@
           <t>Gas Natural</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>7.95004838783437</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -572,10 +516,6 @@
           <t>Madeira</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0.6758947314687541</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -583,10 +523,6 @@
           <t>Borracha</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>142.8862158947376</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -594,10 +530,41 @@
           <t>Milho</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>7.857316298887055</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Aluminio</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Niquel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Zinco</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Titanio</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cacau</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/lista_preços2.xlsx
+++ b/lista_preços2.xlsx
@@ -1,37 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="360" yWindow="510" windowWidth="19815" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>PRODUTO</t>
+  </si>
+  <si>
+    <t>PREÇO</t>
+  </si>
+  <si>
+    <t>DATA ATUAL</t>
+  </si>
+  <si>
+    <t>Dolar/BRL</t>
+  </si>
+  <si>
+    <t>Café/Kg</t>
+  </si>
+  <si>
+    <t>Petroleo</t>
+  </si>
+  <si>
+    <t>Trigo</t>
+  </si>
+  <si>
+    <t>Algodão</t>
+  </si>
+  <si>
+    <t>Açucar</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Etanol</t>
+  </si>
+  <si>
+    <t>Feijao</t>
+  </si>
+  <si>
+    <t>Gas Natural</t>
+  </si>
+  <si>
+    <t>Madeira</t>
+  </si>
+  <si>
+    <t>Borracha</t>
+  </si>
+  <si>
+    <t>Milho</t>
+  </si>
+  <si>
+    <t>Aluminio</t>
+  </si>
+  <si>
+    <t>Niquel</t>
+  </si>
+  <si>
+    <t>Zinco</t>
+  </si>
+  <si>
+    <t>Titanio</t>
+  </si>
+  <si>
+    <t>Cacau</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +117,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,150 +434,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PRODUTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Dolar/BRL</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Café/Kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Petroleo</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Trigo</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Algodão</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Açucar</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Arroz</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Etanol</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Feijao</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Gas Natural</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Madeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Borracha</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Milho</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Aluminio</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Niquel</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Zinco</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Titanio</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Cacau</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>5.2456026490000003</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44742.40515145348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2.0040854523605041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>111.2540292868899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>502.76570880669658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1.9482422857142769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.21345540352752551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>18.229255139902801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1.2635957347767439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>17.240172974266869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10.881570968246169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.69429857053096267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>137.61301947465421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>8.089357839607171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>2587.28675271156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.26187892326479051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>3760.9033055977952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2486.7766650647368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
